--- a/notebook/Results_W1.xlsx
+++ b/notebook/Results_W1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://desertpeak-my.sharepoint.com/personal/apoorva_saxena_sitio_com/Documents/Desktop/Project - Apoorva/Python/Scraping/RRC/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_2E252B8098419ADEE54878D6425DCE3A874FA572" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53573B4-224A-4442-941F-56CBCC399BD6}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_2E252B8098419ADEE54878D6425DCE3A874FA572" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{246C5F08-1A60-47BA-A5E1-13359E590628}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4449,9 +4449,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4460,6 +4460,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4500,12 +4509,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4521,6 +4531,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4810,9 +4824,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S138" sqref="S138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4837,7 +4853,7 @@
     <col min="19" max="19" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
